--- a/data/trans_orig/P57B6_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B6_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>250402</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>223827</v>
+        <v>225526</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>276640</v>
+        <v>274179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4552566058947238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4069410609301951</v>
+        <v>0.4100302072616115</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5029605999618895</v>
+        <v>0.4984865200704292</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>244</v>
@@ -762,19 +762,19 @@
         <v>180605</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>162763</v>
+        <v>163204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>198662</v>
+        <v>201872</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3697806899585089</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3332505693523651</v>
+        <v>0.3341533673613236</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4067520065972158</v>
+        <v>0.4133240846677722</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>482</v>
@@ -783,19 +783,19 @@
         <v>431007</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>400686</v>
+        <v>401085</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>463537</v>
+        <v>462477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.415054380058906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3858563246249713</v>
+        <v>0.3862406998253549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4463812803056965</v>
+        <v>0.445360294533528</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>209255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>185619</v>
+        <v>186405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>231811</v>
+        <v>232107</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3804474531937743</v>
+        <v>0.3804474531937744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.337474133370115</v>
+        <v>0.338904493956662</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.421456327867594</v>
+        <v>0.4219949736367564</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>294</v>
@@ -833,19 +833,19 @@
         <v>203172</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>185193</v>
+        <v>184515</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>223685</v>
+        <v>222695</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4159853510714921</v>
+        <v>0.415985351071492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3791744010319322</v>
+        <v>0.3777868368562743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4579853907388247</v>
+        <v>0.4559582533030116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>516</v>
@@ -854,19 +854,19 @@
         <v>412427</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382271</v>
+        <v>381412</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>443710</v>
+        <v>442430</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3971621333532286</v>
+        <v>0.3971621333532287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3681223106161736</v>
+        <v>0.3672955398806917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.427288004576567</v>
+        <v>0.4260547963987277</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>76643</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>59628</v>
+        <v>61048</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94992</v>
+        <v>95694</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1393449038263151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1084098665553416</v>
+        <v>0.1109914821833309</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1727051023921455</v>
+        <v>0.1739810356332199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -904,19 +904,19 @@
         <v>90075</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>75331</v>
+        <v>75258</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>106700</v>
+        <v>106697</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1844250302360808</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.154236203192469</v>
+        <v>0.1540882294691965</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2184632707817697</v>
+        <v>0.2184576174790055</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -925,19 +925,19 @@
         <v>166718</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>144024</v>
+        <v>144276</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>190573</v>
+        <v>191450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.16054761809714</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1386930810203621</v>
+        <v>0.138935852766696</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1835196229527289</v>
+        <v>0.1843637202668164</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13724</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7406</v>
+        <v>7339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23555</v>
+        <v>23101</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02495103708518678</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01346429659644389</v>
+        <v>0.01334233639959839</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04282540158231563</v>
+        <v>0.04200013776033346</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -975,19 +975,19 @@
         <v>14559</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9122</v>
+        <v>9111</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23533</v>
+        <v>23042</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02980892873391829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01867778487486913</v>
+        <v>0.01865409385487862</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04818191490770102</v>
+        <v>0.04717806979780037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -996,19 +996,19 @@
         <v>28283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19056</v>
+        <v>19882</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39445</v>
+        <v>39726</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02723586849072533</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01835084348625256</v>
+        <v>0.01914651115447425</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0379848969210988</v>
+        <v>0.03825528343360488</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>212739</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>189081</v>
+        <v>190038</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>235268</v>
+        <v>236213</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4402598339434402</v>
+        <v>0.4402598339434401</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3912993614670586</v>
+        <v>0.3932805073436027</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4868827171562166</v>
+        <v>0.4888386625805717</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>185</v>
@@ -1121,19 +1121,19 @@
         <v>142142</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>125274</v>
+        <v>125512</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>159991</v>
+        <v>159972</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3359199075396075</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2960548768264988</v>
+        <v>0.2966194728520309</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3781010108706958</v>
+        <v>0.3780557439922568</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>377</v>
@@ -1142,19 +1142,19 @@
         <v>354881</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>327663</v>
+        <v>324357</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>382110</v>
+        <v>383525</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3915474704582501</v>
+        <v>0.39154747045825</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3615173679178592</v>
+        <v>0.3578700636583257</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4215893475673204</v>
+        <v>0.4231507856616432</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>197522</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>175491</v>
+        <v>175550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221796</v>
+        <v>220194</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4087687859573357</v>
+        <v>0.4087687859573356</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3631768850287965</v>
+        <v>0.3632985993540798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4590040980384286</v>
+        <v>0.4556873640910974</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -1192,19 +1192,19 @@
         <v>185085</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167556</v>
+        <v>168852</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203129</v>
+        <v>201343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4374056396895892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3959806230818676</v>
+        <v>0.3990432717912915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4800482047663436</v>
+        <v>0.4758265729973613</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>486</v>
@@ -1213,19 +1213,19 @@
         <v>382607</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>354502</v>
+        <v>353398</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>409992</v>
+        <v>410815</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.422138249365607</v>
+        <v>0.4221382493656071</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3911290729331094</v>
+        <v>0.3899109631338974</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4523527468091312</v>
+        <v>0.4532610436051412</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>60469</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46702</v>
+        <v>48349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76190</v>
+        <v>75959</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1251389842959794</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09664836606692409</v>
+        <v>0.1000583616668013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1576746891011828</v>
+        <v>0.1571954480066972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -1263,19 +1263,19 @@
         <v>79139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66770</v>
+        <v>66202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>93646</v>
+        <v>95743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1870275835673478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.157794678261699</v>
+        <v>0.1564528670560769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2213111511633664</v>
+        <v>0.2262671449681044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>176</v>
@@ -1284,19 +1284,19 @@
         <v>139608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>121064</v>
+        <v>120147</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>160269</v>
+        <v>160891</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1540324294727381</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1335718361708686</v>
+        <v>0.1325610894065329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1768275621532424</v>
+        <v>0.1775144080084793</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>12483</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5596</v>
+        <v>5918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24822</v>
+        <v>24606</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02583239580324474</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01158175464724779</v>
+        <v>0.01224773099431382</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05136947553579098</v>
+        <v>0.05092086396644328</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -1334,19 +1334,19 @@
         <v>16776</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11247</v>
+        <v>10864</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>26590</v>
+        <v>24567</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03964686920345538</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0265802926778489</v>
+        <v>0.02567442096790918</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06283842601833427</v>
+        <v>0.05805821654222407</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -1355,19 +1355,19 @@
         <v>29259</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>20356</v>
+        <v>19910</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>44718</v>
+        <v>40814</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03228185070340493</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02245967888082467</v>
+        <v>0.02196690994850323</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04933881301825725</v>
+        <v>0.04503045718183052</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>214171</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>192505</v>
+        <v>190672</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>236781</v>
+        <v>236245</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4550267007361383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4089953418985384</v>
+        <v>0.4051012101482687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5030654329483503</v>
+        <v>0.501924915970945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>79</v>
@@ -1480,19 +1480,19 @@
         <v>53823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43705</v>
+        <v>43080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65028</v>
+        <v>65259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2881832791706306</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2340075916870635</v>
+        <v>0.2306597915511999</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3481733702040676</v>
+        <v>0.3494117945942988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>284</v>
@@ -1501,19 +1501,19 @@
         <v>267994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>244234</v>
+        <v>241111</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>293814</v>
+        <v>293007</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4076295489174471</v>
+        <v>0.407629548917447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.371488584919283</v>
+        <v>0.3667391418280407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.446902520963915</v>
+        <v>0.4456741512577115</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>184309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>163456</v>
+        <v>161636</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>205482</v>
+        <v>205649</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3915826922111301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3472785336652977</v>
+        <v>0.3434124841935073</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4365675142863806</v>
+        <v>0.436922061684992</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>128</v>
@@ -1551,19 +1551,19 @@
         <v>84835</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>73968</v>
+        <v>73318</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>97675</v>
+        <v>97012</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4542285218739627</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3960395963830736</v>
+        <v>0.3925601001296233</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5229756745811523</v>
+        <v>0.5194246349853839</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>333</v>
@@ -1572,19 +1572,19 @@
         <v>269145</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>244755</v>
+        <v>246081</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>294525</v>
+        <v>296003</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4093792218643615</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3722820234785889</v>
+        <v>0.3742986372792808</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4479831975945442</v>
+        <v>0.4502315285533133</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>60312</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45958</v>
+        <v>45987</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75512</v>
+        <v>75718</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.12813801207343</v>
+        <v>0.1281380120734301</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.097641802586116</v>
+        <v>0.0977040207233975</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1604325099011213</v>
+        <v>0.1608713735216731</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -1622,19 +1622,19 @@
         <v>39714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31822</v>
+        <v>31051</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>49418</v>
+        <v>49299</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2126394993725071</v>
+        <v>0.212639499372507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1703802764914038</v>
+        <v>0.1662564383335604</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2645948690153432</v>
+        <v>0.2639601373835141</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>134</v>
@@ -1643,19 +1643,19 @@
         <v>100026</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84813</v>
+        <v>83637</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>117790</v>
+        <v>118399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.152143332659876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1290037252109233</v>
+        <v>0.1272153145993914</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1791626970794703</v>
+        <v>0.1800889564437037</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>11886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5368</v>
+        <v>6057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21714</v>
+        <v>24102</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02525259497930167</v>
+        <v>0.02525259497930168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01140560646806888</v>
+        <v>0.01286940269608933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04613310510694209</v>
+        <v>0.05120679587442305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1693,19 +1693,19 @@
         <v>8395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4571</v>
+        <v>4835</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14007</v>
+        <v>13864</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04494869958289973</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02447492315927487</v>
+        <v>0.02588975045909949</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07499873471586908</v>
+        <v>0.07423135480526695</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1714,19 +1714,19 @@
         <v>20281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12780</v>
+        <v>12681</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30489</v>
+        <v>31032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03084789655831554</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01943868658358094</v>
+        <v>0.01928887671889903</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04637501684429749</v>
+        <v>0.04720089913001323</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>424989</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>391099</v>
+        <v>387188</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>463153</v>
+        <v>463006</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3762145360806415</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3462136680714631</v>
+        <v>0.3427513794592306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4099980983200061</v>
+        <v>0.4098685506686557</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>341</v>
@@ -1839,19 +1839,19 @@
         <v>270427</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>247185</v>
+        <v>246361</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>294931</v>
+        <v>294278</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.314568442807664</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2875323320905674</v>
+        <v>0.2865739504422941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3430718032532997</v>
+        <v>0.3423132089903682</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>723</v>
@@ -1860,19 +1860,19 @@
         <v>695416</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>652137</v>
+        <v>653420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>736550</v>
+        <v>744520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3495744827252409</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3278185732050657</v>
+        <v>0.3284636213379234</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3702519311053376</v>
+        <v>0.3742583932413461</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>510014</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>472608</v>
+        <v>472767</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>547198</v>
+        <v>548152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4514810417461138</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.418368186466736</v>
+        <v>0.4185093975114628</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4843978592312739</v>
+        <v>0.485242315260085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>574</v>
@@ -1910,19 +1910,19 @@
         <v>387080</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>361724</v>
+        <v>360743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>412170</v>
+        <v>411830</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4502627608880352</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4207675344313259</v>
+        <v>0.4196270482571967</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4794481410169221</v>
+        <v>0.4790526305681186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1094</v>
@@ -1931,19 +1931,19 @@
         <v>897094</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>853646</v>
+        <v>850876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>939438</v>
+        <v>940092</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4509545677177053</v>
+        <v>0.4509545677177052</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4291139125627979</v>
+        <v>0.4277215681899666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4722402340109506</v>
+        <v>0.4725687973123155</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>171288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>145715</v>
+        <v>146094</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>196350</v>
+        <v>196949</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.151629367140875</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1289916767745733</v>
+        <v>0.1293271127917015</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1738157590437707</v>
+        <v>0.1743455823098259</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>273</v>
@@ -1981,19 +1981,19 @@
         <v>172101</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>153023</v>
+        <v>152734</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>191824</v>
+        <v>192510</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2001926615501331</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1780009506307861</v>
+        <v>0.177664545661259</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2231351710980266</v>
+        <v>0.2239331428842659</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>462</v>
@@ -2002,19 +2002,19 @@
         <v>343388</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>311502</v>
+        <v>312076</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>374587</v>
+        <v>378124</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.172615753876655</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1565869106760053</v>
+        <v>0.156875721674263</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1882988005934013</v>
+        <v>0.1900767243947056</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>23355</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15713</v>
+        <v>15356</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34925</v>
+        <v>36408</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02067505503236958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0139096353448909</v>
+        <v>0.01359352173556863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03091690515969712</v>
+        <v>0.03222999312234804</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2052,19 +2052,19 @@
         <v>30068</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21005</v>
+        <v>22165</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42325</v>
+        <v>41473</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03497613475416764</v>
+        <v>0.03497613475416763</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02443409356172084</v>
+        <v>0.02578331606490725</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04923405780757283</v>
+        <v>0.04824249357724299</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -2073,19 +2073,19 @@
         <v>53424</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41471</v>
+        <v>39893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>68675</v>
+        <v>66054</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02685519568039896</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02084661888233266</v>
+        <v>0.02005346048693514</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03452179391462876</v>
+        <v>0.0332043439890333</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>198783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>173609</v>
+        <v>174907</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>226024</v>
+        <v>226360</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3506580956000357</v>
+        <v>0.3506580956000358</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3062508817597168</v>
+        <v>0.3085400026136192</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3987122873248097</v>
+        <v>0.3993056709668077</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>308</v>
@@ -2198,19 +2198,19 @@
         <v>218689</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>196592</v>
+        <v>199839</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>240922</v>
+        <v>240768</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2645825465113981</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2378475155942785</v>
+        <v>0.2417767916538817</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2914805788418898</v>
+        <v>0.2912948222906531</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>482</v>
@@ -2219,19 +2219,19 @@
         <v>417472</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>384952</v>
+        <v>383036</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>451733</v>
+        <v>450049</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2996004122262614</v>
+        <v>0.2996004122262613</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.276262081556601</v>
+        <v>0.2748870965956259</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3241874913917961</v>
+        <v>0.322979456139055</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>270395</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>243318</v>
+        <v>242056</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>295439</v>
+        <v>294906</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4769840076833621</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4292186119901263</v>
+        <v>0.42699377124922</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5211623339947695</v>
+        <v>0.520222241084791</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>602</v>
@@ -2269,19 +2269,19 @@
         <v>375670</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>351933</v>
+        <v>352187</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>399881</v>
+        <v>400298</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4545062177192198</v>
+        <v>0.4545062177192196</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.425788157443012</v>
+        <v>0.4260948946065678</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4837987101952071</v>
+        <v>0.4843022004239209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>866</v>
@@ -2290,19 +2290,19 @@
         <v>646065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>608612</v>
+        <v>611571</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>682769</v>
+        <v>685405</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4636507917459353</v>
+        <v>0.4636507917459354</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4367724207325899</v>
+        <v>0.4388958894917819</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4899914420961559</v>
+        <v>0.4918835711730561</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>83337</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>68010</v>
+        <v>66396</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>102572</v>
+        <v>99828</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1470094527729781</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.119970874391027</v>
+        <v>0.1171242519086004</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1809391961010841</v>
+        <v>0.1760991812892992</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>318</v>
@@ -2340,19 +2340,19 @@
         <v>196416</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>176328</v>
+        <v>177472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>218039</v>
+        <v>216394</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.23763468308931</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2133313267721034</v>
+        <v>0.2147153624361738</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2637951348197554</v>
+        <v>0.2618049795016648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>411</v>
@@ -2361,19 +2361,19 @@
         <v>279753</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>252779</v>
+        <v>251324</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>310609</v>
+        <v>306085</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2007658837706104</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1814078324951934</v>
+        <v>0.1803632317561522</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2229094411415409</v>
+        <v>0.2196629499984916</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>14370</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>8684</v>
+        <v>8276</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>24905</v>
+        <v>23783</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.0253484439436239</v>
+        <v>0.02534844394362389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01531967181368884</v>
+        <v>0.01459989122010147</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04393358091954538</v>
+        <v>0.04195325267028457</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>55</v>
@@ -2411,19 +2411,19 @@
         <v>35770</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>27377</v>
+        <v>27452</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>47732</v>
+        <v>46874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04327655268007224</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03312180529239288</v>
+        <v>0.03321351293521643</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05774871090003825</v>
+        <v>0.05671039106972321</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>70</v>
@@ -2432,19 +2432,19 @@
         <v>50140</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>39497</v>
+        <v>38775</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>63233</v>
+        <v>64068</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03598291225719299</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02834486658276245</v>
+        <v>0.0278272517723433</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.04537955657407956</v>
+        <v>0.04597846872535312</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>144223</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>120336</v>
+        <v>118374</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>166416</v>
+        <v>167591</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6187105663729923</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5162387515938656</v>
+        <v>0.5078207069337785</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7139212401231163</v>
+        <v>0.7189583293361173</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>337</v>
@@ -2557,19 +2557,19 @@
         <v>298947</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>273328</v>
+        <v>268999</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>326335</v>
+        <v>328241</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3560493013656044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3255373847095619</v>
+        <v>0.3203806324871686</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.388668847144374</v>
+        <v>0.3909391748310289</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>401</v>
@@ -2578,19 +2578,19 @@
         <v>443169</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>402369</v>
+        <v>404021</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>482221</v>
+        <v>478008</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.4131253692395046</v>
+        <v>0.4131253692395047</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3750911566274887</v>
+        <v>0.376631312107653</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4495290611062643</v>
+        <v>0.4456020746783949</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>74365</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>54668</v>
+        <v>52852</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99117</v>
+        <v>98452</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3190251019472329</v>
+        <v>0.319025101947233</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.234523756830019</v>
+        <v>0.2267331531740309</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4252073247475558</v>
+        <v>0.4223549600087506</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>496</v>
@@ -2628,19 +2628,19 @@
         <v>343020</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>313834</v>
+        <v>314587</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>369876</v>
+        <v>370601</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4085415227305052</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3737803112279403</v>
+        <v>0.3746765631887308</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4405263498062775</v>
+        <v>0.441390046770454</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>532</v>
@@ -2649,19 +2649,19 @@
         <v>417386</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>384133</v>
+        <v>383187</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>456945</v>
+        <v>453069</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3890896811797118</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3580907765502905</v>
+        <v>0.3572095164375094</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.425967204368318</v>
+        <v>0.4223533082926488</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>12780</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6149</v>
+        <v>6093</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25702</v>
+        <v>27426</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.05482547348565786</v>
+        <v>0.05482547348565787</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02637687743071752</v>
+        <v>0.02614016434979982</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1102623456951581</v>
+        <v>0.1176559204578483</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>282</v>
@@ -2699,19 +2699,19 @@
         <v>175833</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>156669</v>
+        <v>156127</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>198252</v>
+        <v>199608</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2094188912920761</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1865945714130397</v>
+        <v>0.1859485875472399</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2361200010441749</v>
+        <v>0.2377353672750697</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>291</v>
@@ -2720,19 +2720,19 @@
         <v>188613</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>162924</v>
+        <v>165444</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>210932</v>
+        <v>214069</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1758258740372129</v>
+        <v>0.175825874037213</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1518783578964612</v>
+        <v>0.1542282492215911</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1966316850841276</v>
+        <v>0.1995565548500351</v>
       </c>
     </row>
     <row r="32">
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8680</v>
+        <v>10133</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.007438858194116962</v>
+        <v>0.007438858194116963</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03723820517951267</v>
+        <v>0.04347125949418108</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -2770,19 +2770,19 @@
         <v>21822</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>15310</v>
+        <v>15318</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>30056</v>
+        <v>30759</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02599028461181432</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01823416436822513</v>
+        <v>0.01824373896801991</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03579670792138533</v>
+        <v>0.03663375161759978</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>36</v>
@@ -2791,19 +2791,19 @@
         <v>23556</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>16546</v>
+        <v>16743</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>32868</v>
+        <v>33504</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.02195907554357055</v>
+        <v>0.02195907554357056</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.015424280078762</v>
+        <v>0.01560774928792277</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03063981365491293</v>
+        <v>0.03123237285341704</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>1445306</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1380039</v>
+        <v>1377656</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1507850</v>
+        <v>1504530</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4209368926178286</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4019283536241005</v>
+        <v>0.4012342048088962</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4391525108149932</v>
+        <v>0.438185410511268</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1494</v>
@@ -2916,19 +2916,19 @@
         <v>1164633</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1112887</v>
+        <v>1115796</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1219061</v>
+        <v>1214671</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3213522704070864</v>
+        <v>0.3213522704070862</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3070739911431182</v>
+        <v>0.3078768842495288</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3363701432957063</v>
+        <v>0.3351590823347832</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2749</v>
@@ -2937,19 +2937,19 @@
         <v>2609940</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2527305</v>
+        <v>2517839</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2700218</v>
+        <v>2682540</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3697997657297805</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3580914130300756</v>
+        <v>0.3567501731675963</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3825912180605401</v>
+        <v>0.3800864133651622</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>1445860</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1384243</v>
+        <v>1384946</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1508093</v>
+        <v>1507092</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4210983168941967</v>
+        <v>0.4210983168941969</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4031527178093394</v>
+        <v>0.4033574891632026</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4392232497841237</v>
+        <v>0.4389317700043738</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2366</v>
@@ -2987,19 +2987,19 @@
         <v>1578862</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1525526</v>
+        <v>1528875</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1633674</v>
+        <v>1629230</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.435648679178177</v>
+        <v>0.4356486791781769</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.4209319702592672</v>
+        <v>0.4218559849777682</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4507725746778785</v>
+        <v>0.4495464208160895</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3827</v>
@@ -3008,19 +3008,19 @@
         <v>3024723</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2941915</v>
+        <v>2950929</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>3105820</v>
+        <v>3112485</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.428569989787712</v>
+        <v>0.4285699897877121</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.416837096016647</v>
+        <v>0.4181141645075163</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4400606240325881</v>
+        <v>0.4410049387441115</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>464828</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>427761</v>
+        <v>423958</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>508709</v>
+        <v>509351</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1353784710966079</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.124582756068454</v>
+        <v>0.1234753730504078</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.148158389093351</v>
+        <v>0.1483455259285693</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1180</v>
@@ -3058,19 +3058,19 @@
         <v>753278</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>708734</v>
+        <v>713220</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>793725</v>
+        <v>794836</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2078487571070288</v>
+        <v>0.2078487571070287</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1955578831088215</v>
+        <v>0.1967956896535429</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2190090729440204</v>
+        <v>0.2193156947562949</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1683</v>
@@ -3079,19 +3079,19 @@
         <v>1218106</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1162229</v>
+        <v>1158354</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1282163</v>
+        <v>1280102</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1725922710695144</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1646751175783301</v>
+        <v>0.1641259871292162</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1816684001388563</v>
+        <v>0.1813763539673623</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>77551</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>60683</v>
+        <v>58251</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>99279</v>
+        <v>97433</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02258631939136672</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01767358933535448</v>
+        <v>0.01696525318707402</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02891444079942493</v>
+        <v>0.02837688414768573</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>184</v>
@@ -3129,19 +3129,19 @@
         <v>127390</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>110783</v>
+        <v>107589</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>148841</v>
+        <v>147742</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03515029330770796</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.03056786452190477</v>
+        <v>0.02968653330125717</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04106918994209419</v>
+        <v>0.04076571309460204</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>257</v>
@@ -3150,19 +3150,19 @@
         <v>204942</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>179899</v>
+        <v>180553</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>234837</v>
+        <v>231290</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02903797341299299</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0254897022051654</v>
+        <v>0.02558244113276788</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03327387928895385</v>
+        <v>0.03277118664751125</v>
       </c>
     </row>
     <row r="38">
